--- a/Excel_Appender/Excel_Files_To_Append/ilanlar_4.xlsx
+++ b/Excel_Appender/Excel_Files_To_Append/ilanlar_4.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:L58"/>
+  <dimension ref="A1:L63"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -498,70 +498,70 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>SAFİR'den Eşyalı Balkonlu 2+1 Kiralık Daire</t>
+          <t>BUCA TINAZTEPE YAKINI KISMİ EŞYALI 3+1 KİRALIK DAİRE</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>İzmir / Buca / Çamlıpınar Mah.</t>
+          <t>İzmir / Buca / Atatürk Mah.</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>17.500
+          <t>38.000
 TL</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>2 + 1</t>
+          <t>3 + 1</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>100 m²</t>
+          <t>130 m²</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>11 Yaşında</t>
+          <t>16 Yaşında</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>2. Kat</t>
+          <t>8. Kat</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>28-10-2024</t>
+          <t>01-10-2024</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>https://www.hepsiemlak.com/izmir-buca-camlipinar-kiralik/daire/109159-322</t>
+          <t>https://www.hepsiemlak.com/izmir-buca-ataturk-kiralik/daire/149990-74</t>
         </is>
       </c>
       <c r="J2" t="inlineStr">
         <is>
-          <t>Eşyalı</t>
+          <t>Eşyalı Değil</t>
         </is>
       </c>
       <c r="K2" t="inlineStr">
         <is>
-          <t>Klima</t>
+          <t>Kombi</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>BAŞOĞLU'NDAN KİRALIK EŞYALI 3+1 DAİRE</t>
+          <t>VOLKAN EMLAKTAN BUCA PARK ORMAN EVLERİ (TOKİ 1.ETAP EVLERİ) 3+1</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>İzmir / Buca / Yaylacık Mah.</t>
+          <t>İzmir / Buca / Aydoğdu Mah.</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -577,7 +577,7 @@
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>130 m²</t>
+          <t>120 m²</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
@@ -587,27 +587,27 @@
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>2. Kat</t>
+          <t>Yüksek Giriş</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>16-10-2024</t>
+          <t>09-10-2024</t>
         </is>
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>https://www.hepsiemlak.com/izmir-buca-yaylacik-kiralik/daire/129980-625</t>
+          <t>https://www.hepsiemlak.com/izmir-buca-aydogdu-kiralik/daire/59475-1041</t>
         </is>
       </c>
       <c r="J3" t="inlineStr">
         <is>
-          <t>Eşyalı</t>
+          <t>Eşyalı Değil</t>
         </is>
       </c>
       <c r="K3" t="inlineStr">
         <is>
-          <t>Kombi</t>
+          <t>Merkezi (Pay Ölçer)</t>
         </is>
       </c>
       <c r="L3" t="inlineStr">
@@ -619,75 +619,70 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>BUCA ATATÜRK MAH.'NDE EŞYALI KİRALIK DAİRE (1+1)</t>
+          <t>Buca Yedigöller 2+1 85 M2 D.gazli Arakat</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>İzmir / Buca / Atatürk Mah.</t>
+          <t>İzmir / Buca / Çağdaş Mah.</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>17.500
+          <t>17.000
 TL</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>Stüdyo</t>
+          <t>2 + 1</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>70 m²</t>
+          <t>90 m²</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>18 Yaşında</t>
+          <t>21 Yaşında</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>En Üst Kat</t>
+          <t>3. Kat</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>31-10-2024</t>
+          <t>25-10-2024</t>
         </is>
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>https://www.hepsiemlak.com/izmir-buca-ataturk-kiralik/daire/145065-57</t>
+          <t>https://www.hepsiemlak.com/izmir-buca-cagdas-kiralik/daire/83461-588</t>
         </is>
       </c>
       <c r="J4" t="inlineStr">
         <is>
-          <t>Eşyalı</t>
+          <t>Eşyalı Değil</t>
         </is>
       </c>
       <c r="K4" t="inlineStr">
         <is>
           <t>Kombi</t>
-        </is>
-      </c>
-      <c r="L4" t="inlineStr">
-        <is>
-          <t>Doğalgaz</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>ŞİRİNYER İZBANA YAKIN 1+1</t>
+          <t>SAFİR'den Kampüs Karşısı Ara Kat Balkonlu 2+1 Daire</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>İzmir / Buca / Laleli Mah.</t>
+          <t>İzmir / Buca / Kuruçeşme Mah.</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -698,32 +693,32 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>1 + 1</t>
+          <t>2 + 1</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>49 m²</t>
+          <t>65 m²</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>5 Yaşında</t>
+          <t>4 Yaşında</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>En Üst Kat</t>
+          <t>2. Kat</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>05-11-2024</t>
+          <t>28-10-2024</t>
         </is>
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>https://www.hepsiemlak.com/izmir-buca-laleli-kiralik/daire/142604-71</t>
+          <t>https://www.hepsiemlak.com/izmir-buca-kurucesme-kiralik/daire/109159-319</t>
         </is>
       </c>
       <c r="J5" t="inlineStr">
@@ -733,60 +728,55 @@
       </c>
       <c r="K5" t="inlineStr">
         <is>
-          <t>Soba</t>
-        </is>
-      </c>
-      <c r="L5" t="inlineStr">
-        <is>
-          <t>Elektrik</t>
+          <t>Klima</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>BUCA ADATEPE MAH. TINAZTEPE KAMPÜS CİVARI 2+1 D.GAZLI DAİRE</t>
+          <t>BOZBEY EMLAK'TAN BUCA FIRAT MAH. 3+1 130 M2 KİRALIK DAİRE</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>İzmir / Buca / Adatepe Mah.</t>
+          <t>İzmir / Buca / Fırat Mah.</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>20.000
+          <t>15.000
 TL</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>2 + 1</t>
+          <t>3 + 1</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>100 m²</t>
+          <t>135 m²</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>Sıfır Bina</t>
+          <t>20 Yaşında</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>3. Kat</t>
+          <t>Ara Kat</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>06-11-2024</t>
+          <t>12-10-2024</t>
         </is>
       </c>
       <c r="I6" t="inlineStr">
         <is>
-          <t>https://www.hepsiemlak.com/izmir-buca-adatepe-kiralik/daire/111960-216</t>
+          <t>https://www.hepsiemlak.com/izmir-buca-firat-kiralik/daire/64940-56</t>
         </is>
       </c>
       <c r="J6" t="inlineStr">
@@ -796,118 +786,123 @@
       </c>
       <c r="K6" t="inlineStr">
         <is>
-          <t>Kombi</t>
+          <t>Klima</t>
+        </is>
+      </c>
+      <c r="L6" t="inlineStr">
+        <is>
+          <t>Elektrik</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Şirinyer İzban Yakını Emek Sitasinde  3+1 Kiralık Daire</t>
+          <t>BUCA YAYLACIK MAH.'DE NECİP FAZIL OKULU YAKINI 2+1 EŞYALI KİRALIK DAİRE</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>İzmir / Buca / Hürriyet Mah.</t>
+          <t>İzmir / Buca / Yaylacık Mah.</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>20.000
+          <t>18.500
 TL</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>3 + 1</t>
+          <t>2 + 1</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>145 m²</t>
+          <t>90 m²</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>25 Yaşında</t>
+          <t>28 Yaşında</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>1. Kat</t>
+          <t>3. Kat</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>08-11-2024</t>
+          <t>06-11-2024</t>
         </is>
       </c>
       <c r="I7" t="inlineStr">
         <is>
-          <t>https://www.hepsiemlak.com/izmir-buca-hurriyet-kiralik/daire/32694-775</t>
+          <t>https://www.hepsiemlak.com/izmir-buca-yaylacik-kiralik/daire/111960-240</t>
         </is>
       </c>
       <c r="J7" t="inlineStr">
         <is>
-          <t>Eşyalı Değil</t>
+          <t>Eşyalı</t>
         </is>
       </c>
       <c r="K7" t="inlineStr">
         <is>
-          <t>Kombi</t>
+          <t>Klima</t>
         </is>
       </c>
       <c r="L7" t="inlineStr">
         <is>
-          <t>Doğalgaz</t>
+          <t>Elektrik</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>BUCA MENDERES CADDESİ ÜZERİNDE ÖGRENCİYE İŞYERİNE  UYGUN KİRALIK 2+1 KEFİLLİ VERİLECEKTİR</t>
+          <t>DUBLEKS YERDEN ISITMALI TERASLI LÜKS KİRALIK 1+1 DAİRE</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>İzmir / Buca / Vali Rahmi Bey Mah.</t>
+          <t>İzmir / Buca / Adatepe Mah.</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>13.000
+          <t>19.450
 TL</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>2 + 1</t>
+          <t>1 + 1</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>85 m²</t>
+          <t>87 m²</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>45 Yaşında</t>
+          <t>1 Yaşında</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>En Üst Kat</t>
+          <t>2. Kat</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>02-11-2024</t>
+          <t>26-10-2024</t>
         </is>
       </c>
       <c r="I8" t="inlineStr">
         <is>
-          <t>https://www.hepsiemlak.com/izmir-buca-vali-rahmi-bey-kiralik/daire/30787-1790</t>
+          <t>https://www.hepsiemlak.com/izmir-buca-adatepe-kiralik/daire/144837-74</t>
         </is>
       </c>
       <c r="J8" t="inlineStr">
@@ -917,70 +912,65 @@
       </c>
       <c r="K8" t="inlineStr">
         <is>
-          <t>Soba</t>
-        </is>
-      </c>
-      <c r="L8" t="inlineStr">
-        <is>
-          <t>Elektrik</t>
+          <t>Yerden Isıtma</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>1+1 EŞYALI KİRALIK 9 EYLÜL VE KADIN DOĞUMA YÜRÜME MESAFESİNDE</t>
+          <t>Şirinyer Güven Mh. 3+1 145 M2 Doğalgazlı Arakat Kiralık Daire</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>İzmir / Buca / Atatürk Mah.</t>
+          <t>İzmir / Buca / Güven Mah.</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>14.000
+          <t>21.500
 TL</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>1 + 1</t>
+          <t>3 + 1</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>55 m²</t>
+          <t>145 m²</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>15 Yaşında</t>
+          <t>20 Yaşında</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>Kot 2</t>
+          <t>3. Kat</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>08-11-2024</t>
+          <t>26-10-2024</t>
         </is>
       </c>
       <c r="I9" t="inlineStr">
         <is>
-          <t>https://www.hepsiemlak.com/izmir-buca-ataturk-kiralik/daire/83315-75</t>
+          <t>https://www.hepsiemlak.com/izmir-buca-guven-kiralik/daire/24511-9109</t>
         </is>
       </c>
       <c r="J9" t="inlineStr">
         <is>
-          <t>Eşyalı</t>
+          <t>Eşyalı Değil</t>
         </is>
       </c>
       <c r="K9" t="inlineStr">
         <is>
-          <t>Merkezi</t>
+          <t>Kombi</t>
         </is>
       </c>
       <c r="L9" t="inlineStr">
@@ -992,17 +982,17 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>BUCA DA ÇOK MERKEZİ KONUMDA KIRALIK DAÌRE</t>
+          <t>BUCA HASANAĞA BAHÇESİ - ÜÇKUYULAR'DA 3+1 D.GAZLI MERKEZİ LÜKS DAİRE</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>İzmir / Buca / Menderes Mah.</t>
+          <t>İzmir / Buca / Atatürk Mah.</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>19.000
+          <t>25.000
 TL</t>
         </is>
       </c>
@@ -1013,32 +1003,27 @@
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>120 m²</t>
+          <t>150 m²</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>32 Yaşında</t>
+          <t>12 Yaşında</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>Çatı Katı</t>
+          <t>4. Kat</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>23-10-2024</t>
+          <t>31-10-2024</t>
         </is>
       </c>
       <c r="I10" t="inlineStr">
         <is>
-          <t>https://www.hepsiemlak.com/izmir-buca-menderes-kiralik/daire/27103-4631</t>
-        </is>
-      </c>
-      <c r="J10" t="inlineStr">
-        <is>
-          <t>Eşyalı Değil</t>
+          <t>https://www.hepsiemlak.com/izmir-buca-ataturk-kiralik/daire/111716-1051</t>
         </is>
       </c>
       <c r="K10" t="inlineStr">
@@ -1050,53 +1035,53 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>BUCA ELAGANT REZİDANS SİTESİ KİRALIK 160 m² DAİRE</t>
+          <t>Buca Yaylacık Mah. Arakat Doğalgazlı Eşyalı Kiralık 1+1 Daire...</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>İzmir / Buca / Yıldız Mah.</t>
+          <t>İzmir / Buca / Yaylacık Mah.</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>50.000
+          <t>15.500
 TL</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>3 + 1</t>
+          <t>1 + 1</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>160 m²</t>
+          <t>50 m²</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>4 Yaşında</t>
+          <t>Sıfır Bina</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>8. Kat</t>
+          <t>2. Kat</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>26-10-2024</t>
+          <t>31-10-2024</t>
         </is>
       </c>
       <c r="I11" t="inlineStr">
         <is>
-          <t>https://www.hepsiemlak.com/izmir-buca-yildiz-kiralik/daire/126264-1826</t>
+          <t>https://www.hepsiemlak.com/izmir-buca-yaylacik-kiralik/daire/151862-1</t>
         </is>
       </c>
       <c r="J11" t="inlineStr">
         <is>
-          <t>Eşyalı Değil</t>
+          <t>Eşyalı</t>
         </is>
       </c>
       <c r="K11" t="inlineStr">
@@ -1108,17 +1093,17 @@
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>MARKA'DAN ANACADDE&amp;KAMPÜS YAKINI EŞYALI KLİMALI KİRALIK DAİRE</t>
+          <t>BELLA HOME SİTESİ'NDE SIFIR EŞYALI BAHÇELİ 1+1 KİRALIK DAİRE</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>İzmir / Buca / Yıldız Mah.</t>
+          <t>İzmir / Buca / Atatürk Mah.</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>13.000
+          <t>19.500
 TL</t>
         </is>
       </c>
@@ -1129,27 +1114,27 @@
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>55 m²</t>
+          <t>60 m²</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>4 Yaşında</t>
+          <t>5 Yaşında</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>3. Kat</t>
+          <t>1. Kat</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>08-11-2024</t>
+          <t>18-10-2024</t>
         </is>
       </c>
       <c r="I12" t="inlineStr">
         <is>
-          <t>https://www.hepsiemlak.com/izmir-buca-yildiz-kiralik/daire/71024-1081</t>
+          <t>https://www.hepsiemlak.com/izmir-buca-ataturk-kiralik/daire/142478-121</t>
         </is>
       </c>
       <c r="J12" t="inlineStr">
@@ -1159,65 +1144,65 @@
       </c>
       <c r="K12" t="inlineStr">
         <is>
-          <t>Klima</t>
+          <t>Merkezi (Pay Ölçer)</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>3 ODA 1 SALON ,YÜKSEK ZEMİN -120 M2</t>
+          <t>Buca Tınaztepe Kampüs Karşısı 2+1 EŞYALI KİRALIK DAİRE 60m2</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>İzmir / Buca / Efeler Mah.</t>
+          <t>İzmir / Buca / Kuruçeşme Mah.</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>15.000
+          <t>14.500
 TL</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>3 + 1</t>
+          <t>2 + 1</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>120 m²</t>
+          <t>65 m²</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>26 Yaşında</t>
+          <t>5 Yaşında</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>Yüksek Giriş</t>
+          <t>Zemin</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>06-11-2024</t>
+          <t>08-11-2024</t>
         </is>
       </c>
       <c r="I13" t="inlineStr">
         <is>
-          <t>https://www.hepsiemlak.com/izmir-buca-efeler-kiralik/daire/13470-2486</t>
+          <t>https://www.hepsiemlak.com/izmir-buca-kurucesme-kiralik/daire/104457-66</t>
         </is>
       </c>
       <c r="J13" t="inlineStr">
         <is>
-          <t>Eşyalı Değil</t>
+          <t>Eşyalı</t>
         </is>
       </c>
       <c r="K13" t="inlineStr">
         <is>
-          <t>Isıtma Yok</t>
+          <t>Klima</t>
         </is>
       </c>
       <c r="L13" t="inlineStr">
@@ -1229,48 +1214,53 @@
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>BUCA GÜNLÜK HAFTALIK LÜKS DAİRELER</t>
+          <t>MARKA'DAN ANACADDE&amp;KAMPÜS YAKINI 1+1 KLİMALI KİRALIK DAİRE</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>İzmir / Buca / Yaylacık Mah.</t>
+          <t>İzmir / Buca / Kuruçeşme Mah.</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>200
+          <t>12.000
 TL</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>2 + 1</t>
+          <t>1 + 1</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>60 m²</t>
+          <t>50 m²</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>2 Yaşında</t>
+          <t>4 Yaşında</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>3. Kat</t>
+          <t>Yüksek Giriş</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>05-11-2024</t>
+          <t>08-11-2024</t>
         </is>
       </c>
       <c r="I14" t="inlineStr">
         <is>
-          <t>https://www.hepsiemlak.com/izmir-buca-yaylacik-kiralik/daire/138098-16</t>
+          <t>https://www.hepsiemlak.com/izmir-buca-kurucesme-kiralik/daire/71024-1067</t>
+        </is>
+      </c>
+      <c r="J14" t="inlineStr">
+        <is>
+          <t>Eşyalı</t>
         </is>
       </c>
       <c r="K14" t="inlineStr">
@@ -1282,48 +1272,48 @@
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>GOLDİA YAPI'DAN KAMPÜS YAKINI GENİŞ 1+1 KİRALIK DAİRE</t>
+          <t>KAMPÜSE YAKIN 2+0 KİRALIK DAİRE</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>İzmir / Buca / Adatepe Mah.</t>
+          <t>İzmir / Buca / Atatürk Mah.</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>16.000
+          <t>13.000
 TL</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>1 + 1</t>
+          <t>2 + 0</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>70 m²</t>
+          <t>55 m²</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>7 Yaşında</t>
+          <t>8 Yaşında</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>Ara Kat</t>
+          <t>Kot 1</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>08-11-2024</t>
+          <t>07-11-2024</t>
         </is>
       </c>
       <c r="I15" t="inlineStr">
         <is>
-          <t>https://www.hepsiemlak.com/izmir-buca-adatepe-kiralik/daire/142618-259</t>
+          <t>https://www.hepsiemlak.com/izmir-buca-ataturk-kiralik/daire/126264-1849</t>
         </is>
       </c>
       <c r="J15" t="inlineStr">
@@ -1333,19 +1323,14 @@
       </c>
       <c r="K15" t="inlineStr">
         <is>
-          <t>Kombi</t>
-        </is>
-      </c>
-      <c r="L15" t="inlineStr">
-        <is>
-          <t>Doğalgaz</t>
+          <t>Isıtma Yok</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>ÜÇKUYULAR MEYDAN VE FAKÜLTELER YAKINI '2+1' EŞYALI-DGAZLI DAİRE</t>
+          <t>ATATÜRK MAHALLESİ 2+1 KAPALİ MUTFAK</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
@@ -1355,7 +1340,7 @@
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>17.000
+          <t>15.000
 TL</t>
         </is>
       </c>
@@ -1366,7 +1351,7 @@
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>75 m²</t>
+          <t>110 m²</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
@@ -1376,17 +1361,22 @@
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>3. Kat</t>
+          <t>Ara Kat</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>09-11-2024</t>
+          <t>03-10-2024</t>
         </is>
       </c>
       <c r="I16" t="inlineStr">
         <is>
-          <t>https://www.hepsiemlak.com/izmir-buca-ataturk-kiralik/daire/104457-79</t>
+          <t>https://www.hepsiemlak.com/izmir-buca-ataturk-kiralik/daire/144765-57</t>
+        </is>
+      </c>
+      <c r="J16" t="inlineStr">
+        <is>
+          <t>Eşyalı Değil</t>
         </is>
       </c>
       <c r="K16" t="inlineStr">
@@ -1403,111 +1393,106 @@
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>ARGA'DAN BUCA HÜRRİYET MH.ARAKAT 2+1 AÇIK MUTFAK KİRALIK DAİRE.</t>
+          <t>KURUÇEŞME MAHALLESİNDE ASEM LOFT KİRALIK EŞYALI 1+1</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>İzmir / Buca / Hürriyet Mah.</t>
+          <t>İzmir / Buca / Kuruçeşme Mah.</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>17.000
+          <t>13.500
 TL</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>2 + 1</t>
+          <t>1 + 1</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>75 m²</t>
+          <t>55 m²</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>5 Yaşında</t>
+          <t>4 Yaşında</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>Ara Kat</t>
+          <t>6. Kat</t>
         </is>
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>24-10-2024</t>
+          <t>16-10-2024</t>
         </is>
       </c>
       <c r="I17" t="inlineStr">
         <is>
-          <t>https://www.hepsiemlak.com/izmir-buca-hurriyet-kiralik/daire/63598-143</t>
+          <t>https://www.hepsiemlak.com/izmir-buca-kurucesme-kiralik/daire/144360-29</t>
         </is>
       </c>
       <c r="J17" t="inlineStr">
         <is>
-          <t>Eşyalı Değil</t>
+          <t>Eşyalı</t>
         </is>
       </c>
       <c r="K17" t="inlineStr">
         <is>
           <t>Kombi</t>
-        </is>
-      </c>
-      <c r="L17" t="inlineStr">
-        <is>
-          <t>Doğalgaz</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>Öğrenciye 1+1 Full eşyalı SAHİBİNDEN Tınaztepe ünv. 5dk. yürüme mesafesinde</t>
+          <t>GÜNEŞ'TEN ŞİRİNYER İZBAN 5DK 2+1 95M EŞYALI KAPALI MUTFAK BALKON</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>İzmir / Buca / Kuruçeşme Mah.</t>
+          <t>İzmir / Buca / İnkılap Mah.</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>15.000
+          <t>21.000
 TL</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>1 + 1</t>
+          <t>2 + 1</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>65 m²</t>
+          <t>95 m²</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>7 Yaşında</t>
+          <t>20 Yaşında</t>
         </is>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>Yarı Bodrum</t>
+          <t>4. Kat</t>
         </is>
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>08-11-2024</t>
+          <t>04-11-2024</t>
         </is>
       </c>
       <c r="I18" t="inlineStr">
         <is>
-          <t>https://www.hepsiemlak.com/izmir-buca-kurucesme-kiralik/daire/0-43664456</t>
+          <t>https://www.hepsiemlak.com/izmir-buca-inkilap-kiralik/daire/130324-803</t>
         </is>
       </c>
       <c r="J18" t="inlineStr">
@@ -1517,29 +1502,29 @@
       </c>
       <c r="K18" t="inlineStr">
         <is>
-          <t>Klima</t>
+          <t>Kombi</t>
         </is>
       </c>
       <c r="L18" t="inlineStr">
         <is>
-          <t>Elektrik</t>
+          <t>Doğalgaz</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>BUCA DA MERKEZİ KONUMDA 2+1</t>
+          <t>BAŞOĞLU'NDAN ŞİRİNYER MEYDANDA KİRALIK 2+1 DAİRE</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>İzmir / Buca / Çamlıkule Mah.</t>
+          <t>İzmir / Buca / Hürriyet Mah.</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>20.000
+          <t>21.000
 TL</t>
         </is>
       </c>
@@ -1550,27 +1535,27 @@
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>90 m²</t>
+          <t>120 m²</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>6 Yaşında</t>
+          <t>26 Yaşında</t>
         </is>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>4. Kat</t>
+          <t>1. Kat</t>
         </is>
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>05-11-2024</t>
+          <t>31-10-2024</t>
         </is>
       </c>
       <c r="I19" t="inlineStr">
         <is>
-          <t>https://www.hepsiemlak.com/izmir-buca-camlikule-kiralik/daire/149792-18</t>
+          <t>https://www.hepsiemlak.com/izmir-buca-hurriyet-kiralik/daire/129980-646</t>
         </is>
       </c>
       <c r="J19" t="inlineStr">
@@ -1581,64 +1566,59 @@
       <c r="K19" t="inlineStr">
         <is>
           <t>Kombi</t>
-        </is>
-      </c>
-      <c r="L19" t="inlineStr">
-        <is>
-          <t>Doğalgaz</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>HASANAĞA BAHÇESİNE 5 DK MESAFEDE FUL EŞYALI 2+1 KİRALIK DAİRE</t>
+          <t>Buca Kozağaç Mah Çevikbir Meydanı Seyfi Demirsoy Hast Yakın Tadilatlı 3+1 Dublex Geniş Kiralık Daire</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>İzmir / Buca / Atatürk Mah.</t>
+          <t>İzmir / Buca / Kozağaç Mah.</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>15.750
+          <t>22.000
 TL</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>2 + 1</t>
+          <t>3 + 1</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>65 m²</t>
+          <t>160 m²</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>5 Yaşında</t>
+          <t>20 Yaşında</t>
         </is>
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>Yüksek Giriş</t>
+          <t>Giriş Katı</t>
         </is>
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>08-11-2024</t>
+          <t>12-10-2024</t>
         </is>
       </c>
       <c r="I20" t="inlineStr">
         <is>
-          <t>https://www.hepsiemlak.com/izmir-buca-ataturk-kiralik/daire/104396-106</t>
+          <t>https://www.hepsiemlak.com/izmir-buca-kozagac-kiralik/daire/2499-11649</t>
         </is>
       </c>
       <c r="J20" t="inlineStr">
         <is>
-          <t>Eşyalı</t>
+          <t>Eşyalı Değil</t>
         </is>
       </c>
       <c r="K20" t="inlineStr">
@@ -1655,48 +1635,48 @@
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>YİĞİTLER MAH.3+1 DOĞALGAZLI FULL TADİLATLI 125 M2 KİRALIK DAİRE</t>
+          <t>REF'DEN İBF YANI DOĞALGAZLI TERASLI DUBLEKS 2+1 KİRALIK DAİRE</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>İzmir / Buca / Yiğitler Mah.</t>
+          <t>İzmir / Buca / Adatepe Mah.</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>25.000
+          <t>22.000
 TL</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>3 + 1</t>
+          <t>2 + 1</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>125 m²</t>
+          <t>95 m²</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>25 Yaşında</t>
+          <t>Sıfır Bina</t>
         </is>
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>5. Kat</t>
+          <t>3. Kat</t>
         </is>
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>05-11-2024</t>
+          <t>26-09-2024</t>
         </is>
       </c>
       <c r="I21" t="inlineStr">
         <is>
-          <t>https://www.hepsiemlak.com/izmir-buca-yigitler-kiralik/daire/18435-5272</t>
+          <t>https://www.hepsiemlak.com/izmir-buca-adatepe-kiralik/daire/144696-137</t>
         </is>
       </c>
       <c r="J21" t="inlineStr">
@@ -1718,48 +1698,48 @@
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>Buca Yaylacık Mahallesinde Kiralık Eşyalı 1+1 Doğalgazlı Daire</t>
+          <t>BUCA DUMLUPINAR MAH. KİRALIK 2+1 ARAKAT DAİRE DOGALGAZLI</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>İzmir / Buca / Yaylacık Mah.</t>
+          <t>İzmir / Buca / Dumlupınar Mah.</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>15.500
+          <t>18.000
 TL</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>1 + 1</t>
+          <t>2 + 1</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>50 m²</t>
+          <t>110 m²</t>
         </is>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>7 Yaşında</t>
+          <t>16 Yaşında</t>
         </is>
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>4. Kat</t>
+          <t>2. Kat</t>
         </is>
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>04-11-2024</t>
+          <t>31-10-2024</t>
         </is>
       </c>
       <c r="I22" t="inlineStr">
         <is>
-          <t>https://www.hepsiemlak.com/izmir-buca-yaylacik-kiralik/daire/15356-5760</t>
+          <t>https://www.hepsiemlak.com/izmir-buca-dumlupinar-kiralik/daire/145203-44</t>
         </is>
       </c>
       <c r="J22" t="inlineStr">
@@ -1770,49 +1750,44 @@
       <c r="K22" t="inlineStr">
         <is>
           <t>Kombi</t>
-        </is>
-      </c>
-      <c r="L22" t="inlineStr">
-        <is>
-          <t>Doğalgaz</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>UÇANYOL VE ŞİRİNYER YAKINI MERKEZİ KONUMDA 3+1 K.MUTFAK KİRALIK</t>
+          <t>SAYGIN GAYRİMENKUL'DEN BUCA KOZAĞAÇTA 1+1 EŞYALI KİRALIK DAİRE</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>İzmir / Buca / Yiğitler Mah.</t>
+          <t>İzmir / Buca / Kozağaç Mah.</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>20.000
+          <t>15.500
 TL</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>3 + 1</t>
+          <t>1 + 1</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>120 m²</t>
+          <t>60 m²</t>
         </is>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>26 Yaşında</t>
+          <t>2 Yaşında</t>
         </is>
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>3. Kat</t>
+          <t>Yüksek Giriş</t>
         </is>
       </c>
       <c r="H23" t="inlineStr">
@@ -1822,65 +1797,70 @@
       </c>
       <c r="I23" t="inlineStr">
         <is>
-          <t>https://www.hepsiemlak.com/izmir-buca-yigitler-kiralik/daire/145175-90</t>
+          <t>https://www.hepsiemlak.com/izmir-buca-kozagac-kiralik/daire/146420-22</t>
         </is>
       </c>
       <c r="J23" t="inlineStr">
         <is>
-          <t>Eşyalı Değil</t>
+          <t>Eşyalı</t>
         </is>
       </c>
       <c r="K23" t="inlineStr">
         <is>
           <t>Kombi</t>
+        </is>
+      </c>
+      <c r="L23" t="inlineStr">
+        <is>
+          <t>Doğalgaz</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>Buca Laleli Mah. Kiralık 2+1 Daire</t>
+          <t>3+1 BUCA BELEDİYE YAKINI 130M2 ARAKAT KÖŞE KİRALIK DAİRE</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>İzmir / Buca / Laleli Mah.</t>
+          <t>İzmir / Buca / Menderes Mah.</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>20.000
+          <t>18.000
 TL</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>2 + 1</t>
+          <t>3 + 1</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>85 m²</t>
+          <t>130 m²</t>
         </is>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>4 Yaşında</t>
+          <t>25 Yaşında</t>
         </is>
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>1. Kat</t>
+          <t>Ara Kat</t>
         </is>
       </c>
       <c r="H24" t="inlineStr">
         <is>
-          <t>31-10-2024</t>
+          <t>25-10-2024</t>
         </is>
       </c>
       <c r="I24" t="inlineStr">
         <is>
-          <t>https://www.hepsiemlak.com/izmir-buca-laleli-kiralik/daire/151855-11</t>
+          <t>https://www.hepsiemlak.com/izmir-buca-menderes-kiralik/daire/83315-103</t>
         </is>
       </c>
       <c r="J24" t="inlineStr">
@@ -1890,55 +1870,55 @@
       </c>
       <c r="K24" t="inlineStr">
         <is>
-          <t>Kombi</t>
+          <t>Isıtma Yok</t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>ATAMER GAYRİMENKUL'DEN FULL EŞYALI MERKEZİ KONUM 2+1 DAİRE.</t>
+          <t>KAMPÜS KARŞISI// FULL EŞYALI KİRALIK 1+1 55m2 ARAKAT DAİRELER</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>İzmir / Buca / Atatürk Mah.</t>
+          <t>İzmir / Buca / Kuruçeşme Mah.</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>20.000
+          <t>21.000
 TL</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>2 + 1</t>
+          <t>1 + 1</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>75 m²</t>
+          <t>55 m²</t>
         </is>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>5 Yaşında</t>
+          <t>3 Yaşında</t>
         </is>
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>Yüksek Giriş</t>
+          <t>3. Kat</t>
         </is>
       </c>
       <c r="H25" t="inlineStr">
         <is>
-          <t>08-11-2024</t>
+          <t>04-10-2024</t>
         </is>
       </c>
       <c r="I25" t="inlineStr">
         <is>
-          <t>https://www.hepsiemlak.com/izmir-buca-ataturk-kiralik/daire/151729-2</t>
+          <t>https://www.hepsiemlak.com/izmir-buca-kurucesme-kiralik/daire/145608-23</t>
         </is>
       </c>
       <c r="J25" t="inlineStr">
@@ -1948,55 +1928,55 @@
       </c>
       <c r="K25" t="inlineStr">
         <is>
-          <t>Kombi</t>
+          <t>Merkezi (Pay Ölçer)</t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>SAFİR'den Eşyalı Balkonlu 2+1 Kiralık Daire</t>
+          <t>Buca PARİSADAN EŞYALI 1+0 KİRALIK DAİREsevim</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>İzmir / Buca / Çamlıpınar Mah.</t>
+          <t>İzmir / Buca / Yıldız Mah.</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>17.500
+          <t>5.000
 TL</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>2 + 1</t>
+          <t>Stüdyo</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>100 m²</t>
+          <t>35 m²</t>
         </is>
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>11 Yaşında</t>
+          <t>14 Yaşında</t>
         </is>
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>2. Kat</t>
+          <t>Teras Katı</t>
         </is>
       </c>
       <c r="H26" t="inlineStr">
         <is>
-          <t>28-10-2024</t>
+          <t>10-11-2024</t>
         </is>
       </c>
       <c r="I26" t="inlineStr">
         <is>
-          <t>https://www.hepsiemlak.com/izmir-buca-camlipinar-kiralik/daire/109159-322</t>
+          <t>https://www.hepsiemlak.com/izmir-buca-yildiz-kiralik/daire/143816-46</t>
         </is>
       </c>
       <c r="J26" t="inlineStr">
@@ -2006,118 +1986,123 @@
       </c>
       <c r="K26" t="inlineStr">
         <is>
-          <t>Klima</t>
+          <t>Isıtma Yok</t>
+        </is>
+      </c>
+      <c r="L26" t="inlineStr">
+        <is>
+          <t>Kömür-Odun</t>
         </is>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>BAŞOĞLU'NDAN KİRALIK EŞYALI 3+1 DAİRE</t>
+          <t>ATA EMLAKTAN LALELİ MAHALLESİ VALİ RAHMİ BEY OKULU YAKINI 2+1DAİRE</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>İzmir / Buca / Yaylacık Mah.</t>
+          <t>İzmir / Buca / Laleli Mah.</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>23.000
+          <t>12.000
 TL</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>3 + 1</t>
+          <t>2 + 1</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>130 m²</t>
+          <t>90 m²</t>
         </is>
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>15 Yaşında</t>
+          <t>27 Yaşında</t>
         </is>
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>2. Kat</t>
+          <t>4. Kat</t>
         </is>
       </c>
       <c r="H27" t="inlineStr">
         <is>
-          <t>16-10-2024</t>
+          <t>17-10-2024</t>
         </is>
       </c>
       <c r="I27" t="inlineStr">
         <is>
-          <t>https://www.hepsiemlak.com/izmir-buca-yaylacik-kiralik/daire/129980-625</t>
+          <t>https://www.hepsiemlak.com/izmir-buca-laleli-kiralik/daire/6425-4601</t>
         </is>
       </c>
       <c r="J27" t="inlineStr">
         <is>
-          <t>Eşyalı</t>
+          <t>Eşyalı Değil</t>
         </is>
       </c>
       <c r="K27" t="inlineStr">
         <is>
-          <t>Kombi</t>
+          <t>Isıtma Yok</t>
+        </is>
+      </c>
+      <c r="L27" t="inlineStr">
+        <is>
+          <t>Elektrik</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>BUCA ATATÜRK MAH.'NDE EŞYALI KİRALIK DAİRE (1+1)</t>
+          <t>Buca Hürriyet Mahallesinde//Şirinyer Menderses Caddesi//İzbana 4-5dk//2.Kat//3+1 İçi Yapılı//Daire</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>İzmir / Buca / Atatürk Mah.</t>
+          <t>İzmir / Buca / Hürriyet Mah.</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>17.500
+          <t>15.000
 TL</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>Stüdyo</t>
+          <t>2 + 1</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>70 m²</t>
+          <t>100 m²</t>
         </is>
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>18 Yaşında</t>
+          <t>25 Yaşında</t>
         </is>
       </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t>En Üst Kat</t>
+          <t>2. Kat</t>
         </is>
       </c>
       <c r="H28" t="inlineStr">
         <is>
-          <t>31-10-2024</t>
+          <t>06-11-2024</t>
         </is>
       </c>
       <c r="I28" t="inlineStr">
         <is>
-          <t>https://www.hepsiemlak.com/izmir-buca-ataturk-kiralik/daire/145065-57</t>
-        </is>
-      </c>
-      <c r="J28" t="inlineStr">
-        <is>
-          <t>Eşyalı</t>
+          <t>https://www.hepsiemlak.com/izmir-buca-hurriyet-kiralik/daire/85846-1897</t>
         </is>
       </c>
       <c r="K28" t="inlineStr">
@@ -2129,48 +2114,48 @@
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>ŞİRİNYER İZBANA YAKIN 1+1</t>
+          <t>EŞYALI ,2 ODA 1 SALON SIFIR LÜX ,DOĞALGAZLI VE KLİMALI</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>İzmir / Buca / Laleli Mah.</t>
+          <t>İzmir / Buca / Yaylacık Mah.</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>15.000
+          <t>23.000
 TL</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>1 + 1</t>
+          <t>2 + 1</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>49 m²</t>
+          <t>75 m²</t>
         </is>
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>5 Yaşında</t>
+          <t>Sıfır Bina</t>
         </is>
       </c>
       <c r="G29" t="inlineStr">
         <is>
-          <t>En Üst Kat</t>
+          <t>Ara Kat</t>
         </is>
       </c>
       <c r="H29" t="inlineStr">
         <is>
-          <t>05-11-2024</t>
+          <t>03-11-2024</t>
         </is>
       </c>
       <c r="I29" t="inlineStr">
         <is>
-          <t>https://www.hepsiemlak.com/izmir-buca-laleli-kiralik/daire/142604-71</t>
+          <t>https://www.hepsiemlak.com/izmir-buca-yaylacik-kiralik/daire/13470-2455</t>
         </is>
       </c>
       <c r="J29" t="inlineStr">
@@ -2181,44 +2166,49 @@
       <c r="K29" t="inlineStr">
         <is>
           <t>Kombi</t>
+        </is>
+      </c>
+      <c r="L29" t="inlineStr">
+        <is>
+          <t>Doğalgaz</t>
         </is>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>BUCA ADATEPE MAH. TINAZTEPE KAMPÜS CİVARI 2+1 D.GAZLI DAİRE</t>
+          <t>BUCA GAZİLER MAH.'DE 3+1 170 M2 KİRALIK ARA KAT DAİRE</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>İzmir / Buca / Adatepe Mah.</t>
+          <t>İzmir / Buca / Gaziler Mah.</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>20.000
+          <t>24.000
 TL</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>2 + 1</t>
+          <t>3 + 1</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>100 m²</t>
+          <t>170 m²</t>
         </is>
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>Sıfır Bina</t>
+          <t>24 Yaşında</t>
         </is>
       </c>
       <c r="G30" t="inlineStr">
         <is>
-          <t>3. Kat</t>
+          <t>2. Kat</t>
         </is>
       </c>
       <c r="H30" t="inlineStr">
@@ -2228,7 +2218,7 @@
       </c>
       <c r="I30" t="inlineStr">
         <is>
-          <t>https://www.hepsiemlak.com/izmir-buca-adatepe-kiralik/daire/111960-216</t>
+          <t>https://www.hepsiemlak.com/izmir-buca-gaziler-kiralik/daire/111960-230</t>
         </is>
       </c>
       <c r="J30" t="inlineStr">
@@ -2250,48 +2240,48 @@
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>Şirinyer İzban Yakını Emek Sitasinde  3+1 Kiralık Daire</t>
+          <t>Eğitim ve İktisat Fakültesine yürüyüş mesafesinde Heykel meydan üstü 1+1 78 m2 Asansörlü Lüks Sıfır</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>İzmir / Buca / Hürriyet Mah.</t>
+          <t>İzmir / Buca / Yaylacık Mah.</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>20.000
+          <t>15.000
 TL</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>3 + 1</t>
+          <t>1 + 1</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>145 m²</t>
+          <t>78 m²</t>
         </is>
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>25 Yaşında</t>
+          <t>Sıfır Bina</t>
         </is>
       </c>
       <c r="G31" t="inlineStr">
         <is>
-          <t>1. Kat</t>
+          <t>4. Kat</t>
         </is>
       </c>
       <c r="H31" t="inlineStr">
         <is>
-          <t>08-11-2024</t>
+          <t>16-10-2024</t>
         </is>
       </c>
       <c r="I31" t="inlineStr">
         <is>
-          <t>https://www.hepsiemlak.com/izmir-buca-hurriyet-kiralik/daire/32694-775</t>
+          <t>https://www.hepsiemlak.com/izmir-buca-yaylacik-kiralik/daire/3526-3161</t>
         </is>
       </c>
       <c r="J31" t="inlineStr">
@@ -2301,7 +2291,7 @@
       </c>
       <c r="K31" t="inlineStr">
         <is>
-          <t>Merkezi (Pay Ölçer)</t>
+          <t>Kombi</t>
         </is>
       </c>
       <c r="L31" t="inlineStr">
@@ -2313,48 +2303,48 @@
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>BUCA MENDERES CADDESİ ÜZERİNDE ÖGRENCİYE İŞYERİNE  UYGUN KİRALIK 2+1 KEFİLLİ VERİLECEKTİR</t>
+          <t>Buca Şirinyer Efeler Mh. 3+1 130M2 Doğalgazlı Ebeveyn Banyolu Kiralık Daire</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>İzmir / Buca / Vali Rahmi Bey Mah.</t>
+          <t>İzmir / Buca / Efeler Mah.</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>13.000
+          <t>25.000
 TL</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>2 + 1</t>
+          <t>3 + 1</t>
         </is>
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>85 m²</t>
+          <t>130 m²</t>
         </is>
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>45 Yaşında</t>
+          <t>35 Yaşında</t>
         </is>
       </c>
       <c r="G32" t="inlineStr">
         <is>
-          <t>En Üst Kat</t>
+          <t>3. Kat</t>
         </is>
       </c>
       <c r="H32" t="inlineStr">
         <is>
-          <t>02-11-2024</t>
+          <t>15-10-2024</t>
         </is>
       </c>
       <c r="I32" t="inlineStr">
         <is>
-          <t>https://www.hepsiemlak.com/izmir-buca-vali-rahmi-bey-kiralik/daire/30787-1790</t>
+          <t>https://www.hepsiemlak.com/izmir-buca-efeler-kiralik/daire/24511-9108</t>
         </is>
       </c>
       <c r="J32" t="inlineStr">
@@ -2376,144 +2366,149 @@
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>1+1 EŞYALI KİRALIK 9 EYLÜL VE KADIN DOĞUMA YÜRÜME MESAFESİNDE</t>
+          <t>ARGA'DAN  BUCA GEDİZ'DE D.GAZLI ARA KAT 2+1 KİRALIK DAİRE.</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>İzmir / Buca / Atatürk Mah.</t>
+          <t>İzmir / Buca / Göksu Mah.</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>14.000
+          <t>17.000
 TL</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>1 + 1</t>
+          <t>2 + 1</t>
         </is>
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>55 m²</t>
+          <t>100 m²</t>
         </is>
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>15 Yaşında</t>
+          <t>25 Yaşında</t>
         </is>
       </c>
       <c r="G33" t="inlineStr">
         <is>
-          <t>Kot 2</t>
+          <t>Ara Kat</t>
         </is>
       </c>
       <c r="H33" t="inlineStr">
         <is>
-          <t>08-11-2024</t>
+          <t>29-10-2024</t>
         </is>
       </c>
       <c r="I33" t="inlineStr">
         <is>
-          <t>https://www.hepsiemlak.com/izmir-buca-ataturk-kiralik/daire/83315-75</t>
+          <t>https://www.hepsiemlak.com/izmir-buca-goksu-kiralik/daire/63598-159</t>
         </is>
       </c>
       <c r="J33" t="inlineStr">
         <is>
-          <t>Eşyalı</t>
+          <t>Eşyalı Değil</t>
         </is>
       </c>
       <c r="K33" t="inlineStr">
         <is>
           <t>Kombi</t>
+        </is>
+      </c>
+      <c r="L33" t="inlineStr">
+        <is>
+          <t>Doğalgaz</t>
         </is>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>BUCA DA ÇOK MERKEZİ KONUMDA KIRALIK DAÌRE</t>
+          <t>ÇAMLIKULE MH. MERKEZİ KONUMDA // 2+1 // D.Gazlı ARAKAT KİRALIK</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>İzmir / Buca / Menderes Mah.</t>
+          <t>İzmir / Buca / Çamlıkule Mah.</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>19.000
+          <t>16.500
 TL</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>3 + 1</t>
+          <t>2 + 1</t>
         </is>
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>120 m²</t>
+          <t>130 m²</t>
         </is>
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>32 Yaşında</t>
+          <t>16 Yaşında</t>
         </is>
       </c>
       <c r="G34" t="inlineStr">
         <is>
-          <t>Çatı Katı</t>
+          <t>3. Kat</t>
         </is>
       </c>
       <c r="H34" t="inlineStr">
         <is>
-          <t>23-10-2024</t>
+          <t>26-10-2024</t>
         </is>
       </c>
       <c r="I34" t="inlineStr">
         <is>
-          <t>https://www.hepsiemlak.com/izmir-buca-menderes-kiralik/daire/27103-4631</t>
+          <t>https://www.hepsiemlak.com/izmir-buca-camlikule-kiralik/daire/104457-10</t>
+        </is>
+      </c>
+      <c r="J34" t="inlineStr">
+        <is>
+          <t>Eşyalı Değil</t>
         </is>
       </c>
       <c r="K34" t="inlineStr">
         <is>
-          <t>Klima</t>
-        </is>
-      </c>
-      <c r="L34" t="inlineStr">
-        <is>
-          <t>Elektrik</t>
+          <t>Kombi</t>
         </is>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>BUCA ELAGANT REZİDANS SİTESİ KİRALIK 160 m² DAİRE</t>
+          <t>MARKA'DAN ANACADDE&amp;KAMPÜS YAKINI 1+1 EŞYALI&amp;KLİMALI KİRALIK DAİR</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>İzmir / Buca / Yıldız Mah.</t>
+          <t>İzmir / Buca / Atatürk Mah.</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>50.000
+          <t>15.000
 TL</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>3 + 1</t>
+          <t>1 + 1</t>
         </is>
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>160 m²</t>
+          <t>55 m²</t>
         </is>
       </c>
       <c r="F35" t="inlineStr">
@@ -2523,60 +2518,55 @@
       </c>
       <c r="G35" t="inlineStr">
         <is>
-          <t>8. Kat</t>
+          <t>2. Kat</t>
         </is>
       </c>
       <c r="H35" t="inlineStr">
         <is>
-          <t>26-10-2024</t>
+          <t>08-11-2024</t>
         </is>
       </c>
       <c r="I35" t="inlineStr">
         <is>
-          <t>https://www.hepsiemlak.com/izmir-buca-yildiz-kiralik/daire/126264-1826</t>
+          <t>https://www.hepsiemlak.com/izmir-buca-ataturk-kiralik/daire/71024-1066</t>
         </is>
       </c>
       <c r="J35" t="inlineStr">
         <is>
-          <t>Eşyalı Değil</t>
+          <t>Eşyalı</t>
         </is>
       </c>
       <c r="K35" t="inlineStr">
         <is>
           <t>Klima</t>
-        </is>
-      </c>
-      <c r="L35" t="inlineStr">
-        <is>
-          <t>Elektrik</t>
         </is>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>MARKA'DAN ANACADDE&amp;KAMPÜS YAKINI EŞYALI KLİMALI KİRALIK DAİRE</t>
+          <t>SAFİR'den Eşyalı Kiralık 2+1 Daire</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>İzmir / Buca / Yıldız Mah.</t>
+          <t>İzmir / Buca / Atatürk Mah.</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>13.000
+          <t>25.000
 TL</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>1 + 1</t>
+          <t>2 + 1</t>
         </is>
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>55 m²</t>
+          <t>75 m²</t>
         </is>
       </c>
       <c r="F36" t="inlineStr">
@@ -2586,17 +2576,17 @@
       </c>
       <c r="G36" t="inlineStr">
         <is>
-          <t>3. Kat</t>
+          <t>Zemin</t>
         </is>
       </c>
       <c r="H36" t="inlineStr">
         <is>
-          <t>08-11-2024</t>
+          <t>28-10-2024</t>
         </is>
       </c>
       <c r="I36" t="inlineStr">
         <is>
-          <t>https://www.hepsiemlak.com/izmir-buca-yildiz-kiralik/daire/71024-1081</t>
+          <t>https://www.hepsiemlak.com/izmir-buca-ataturk-kiralik/daire/109159-324</t>
         </is>
       </c>
       <c r="J36" t="inlineStr">
@@ -2613,48 +2603,48 @@
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>3 ODA 1 SALON ,YÜKSEK ZEMİN -120 M2</t>
+          <t>BUCA ADATEPE IŞILAY SAYGIN YAKINI 2+1 100 M2 KAPALI MUTFAK KİRALIK DAİRE</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>İzmir / Buca / Efeler Mah.</t>
+          <t>İzmir / Buca / Adatepe Mah.</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>15.000
+          <t>20.000
 TL</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>3 + 1</t>
+          <t>2 + 1</t>
         </is>
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>120 m²</t>
+          <t>100 m²</t>
         </is>
       </c>
       <c r="F37" t="inlineStr">
         <is>
-          <t>26 Yaşında</t>
+          <t>4 Yaşında</t>
         </is>
       </c>
       <c r="G37" t="inlineStr">
         <is>
-          <t>Yüksek Giriş</t>
+          <t>2. Kat</t>
         </is>
       </c>
       <c r="H37" t="inlineStr">
         <is>
-          <t>06-11-2024</t>
+          <t>08-11-2024</t>
         </is>
       </c>
       <c r="I37" t="inlineStr">
         <is>
-          <t>https://www.hepsiemlak.com/izmir-buca-efeler-kiralik/daire/13470-2486</t>
+          <t>https://www.hepsiemlak.com/izmir-buca-adatepe-kiralik/daire/111716-1077</t>
         </is>
       </c>
       <c r="J37" t="inlineStr">
@@ -2664,7 +2654,7 @@
       </c>
       <c r="K37" t="inlineStr">
         <is>
-          <t>Merkezi (Pay Ölçer)</t>
+          <t>Kombi</t>
         </is>
       </c>
       <c r="L37" t="inlineStr">
@@ -2676,7 +2666,7 @@
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>BUCA GÜNLÜK HAFTALIK LÜKS DAİRELER</t>
+          <t>BAŞOĞLU'NDAN KİRALIK EŞYALI 3+1 DAİRE</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
@@ -2686,38 +2676,38 @@
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>200
+          <t>23.000
 TL</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>2 + 1</t>
+          <t>3 + 1</t>
         </is>
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>60 m²</t>
+          <t>130 m²</t>
         </is>
       </c>
       <c r="F38" t="inlineStr">
         <is>
-          <t>2 Yaşında</t>
+          <t>16 Yaşında</t>
         </is>
       </c>
       <c r="G38" t="inlineStr">
         <is>
-          <t>3. Kat</t>
+          <t>2. Kat</t>
         </is>
       </c>
       <c r="H38" t="inlineStr">
         <is>
-          <t>05-11-2024</t>
+          <t>31-10-2024</t>
         </is>
       </c>
       <c r="I38" t="inlineStr">
         <is>
-          <t>https://www.hepsiemlak.com/izmir-buca-yaylacik-kiralik/daire/138098-16</t>
+          <t>https://www.hepsiemlak.com/izmir-buca-yaylacik-kiralik/daire/129980-643</t>
         </is>
       </c>
       <c r="J38" t="inlineStr">
@@ -2728,76 +2718,76 @@
       <c r="K38" t="inlineStr">
         <is>
           <t>Kombi</t>
-        </is>
-      </c>
-      <c r="L38" t="inlineStr">
-        <is>
-          <t>Doğalgaz</t>
         </is>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>GOLDİA YAPI'DAN KAMPÜS YAKINI GENİŞ 1+1 KİRALIK DAİRE</t>
+          <t>Buca Kuruçeşme Mah Üniversite Yakını Doğalgazlı 2+1 Kiralık Daire</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>İzmir / Buca / Adatepe Mah.</t>
+          <t>İzmir / Buca / Kuruçeşme Mah.</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>16.000
+          <t>13.000
 TL</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>1 + 1</t>
+          <t>2 + 1</t>
         </is>
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>70 m²</t>
+          <t>90 m²</t>
         </is>
       </c>
       <c r="F39" t="inlineStr">
         <is>
-          <t>7 Yaşında</t>
+          <t>15 Yaşında</t>
         </is>
       </c>
       <c r="G39" t="inlineStr">
         <is>
-          <t>Ara Kat</t>
+          <t>1. Kat</t>
         </is>
       </c>
       <c r="H39" t="inlineStr">
         <is>
-          <t>08-11-2024</t>
+          <t>24-10-2024</t>
         </is>
       </c>
       <c r="I39" t="inlineStr">
         <is>
-          <t>https://www.hepsiemlak.com/izmir-buca-adatepe-kiralik/daire/142618-259</t>
+          <t>https://www.hepsiemlak.com/izmir-buca-kurucesme-kiralik/daire/2499-11627</t>
         </is>
       </c>
       <c r="J39" t="inlineStr">
         <is>
-          <t>Eşyalı</t>
+          <t>Eşyalı Değil</t>
         </is>
       </c>
       <c r="K39" t="inlineStr">
         <is>
           <t>Kombi</t>
+        </is>
+      </c>
+      <c r="L39" t="inlineStr">
+        <is>
+          <t>Doğalgaz</t>
         </is>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>ÜÇKUYULAR MEYDAN VE FAKÜLTELER YAKINI '2+1' EŞYALI-DGAZLI DAİRE</t>
+          <t>9 EYLÜL KAMPÜS YAKINI KİRALIK 1+0 daire 11.000tl</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
@@ -2807,23 +2797,23 @@
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>17.000
+          <t>13.500
 TL</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>2 + 1</t>
+          <t>Stüdyo</t>
         </is>
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>75 m²</t>
+          <t>45 m²</t>
         </is>
       </c>
       <c r="F40" t="inlineStr">
         <is>
-          <t>15 Yaşında</t>
+          <t>5 Yaşında</t>
         </is>
       </c>
       <c r="G40" t="inlineStr">
@@ -2833,39 +2823,44 @@
       </c>
       <c r="H40" t="inlineStr">
         <is>
-          <t>09-11-2024</t>
+          <t>20-09-2024</t>
         </is>
       </c>
       <c r="I40" t="inlineStr">
         <is>
-          <t>https://www.hepsiemlak.com/izmir-buca-ataturk-kiralik/daire/104457-79</t>
+          <t>https://www.hepsiemlak.com/izmir-buca-ataturk-kiralik/daire/145608-8</t>
         </is>
       </c>
       <c r="J40" t="inlineStr">
         <is>
-          <t>Eşyalı Değil</t>
+          <t>Eşyalı</t>
         </is>
       </c>
       <c r="K40" t="inlineStr">
         <is>
           <t>Merkezi (Pay Ölçer)</t>
+        </is>
+      </c>
+      <c r="L40" t="inlineStr">
+        <is>
+          <t>Doğalgaz</t>
         </is>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>ARGA'DAN BUCA HÜRRİYET MH.ARAKAT 2+1 AÇIK MUTFAK KİRALIK DAİRE.</t>
+          <t>KİRALIK ; ÇAMLIPINAR MERKEZ YAKINI CADDE ÜZERİ ARAKAT  DAİRE</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>İzmir / Buca / Hürriyet Mah.</t>
+          <t>İzmir / Buca / Çamlıpınar Mah.</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>17.000
+          <t>10.000
 TL</t>
         </is>
       </c>
@@ -2876,49 +2871,49 @@
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>75 m²</t>
+          <t>116 m²</t>
         </is>
       </c>
       <c r="F41" t="inlineStr">
         <is>
-          <t>5 Yaşında</t>
+          <t>31 Yaşında</t>
         </is>
       </c>
       <c r="G41" t="inlineStr">
         <is>
-          <t>Ara Kat</t>
+          <t>1. Kat</t>
         </is>
       </c>
       <c r="H41" t="inlineStr">
         <is>
-          <t>24-10-2024</t>
+          <t>10-11-2024</t>
         </is>
       </c>
       <c r="I41" t="inlineStr">
         <is>
-          <t>https://www.hepsiemlak.com/izmir-buca-hurriyet-kiralik/daire/63598-143</t>
+          <t>https://www.hepsiemlak.com/izmir-buca-camlipinar-kiralik/daire/126264-1845</t>
         </is>
       </c>
       <c r="J41" t="inlineStr">
         <is>
-          <t>Eşyalı</t>
+          <t>Eşyalı Değil</t>
         </is>
       </c>
       <c r="K41" t="inlineStr">
         <is>
-          <t>Kombi</t>
+          <t>Klima</t>
         </is>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>Öğrenciye 1+1 Full eşyalı SAHİBİNDEN Tınaztepe ünv. 5dk. yürüme mesafesinde</t>
+          <t>GOLDİA YAPI'DAN KAMPÜS YAKINI LÜX EŞYALI KİRALIK DAİRE</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>İzmir / Buca / Kuruçeşme Mah.</t>
+          <t>İzmir / Buca / Adatepe Mah.</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
@@ -2934,54 +2929,54 @@
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>65 m²</t>
+          <t>60 m²</t>
         </is>
       </c>
       <c r="F42" t="inlineStr">
         <is>
-          <t>7 Yaşında</t>
+          <t>5 Yaşında</t>
         </is>
       </c>
       <c r="G42" t="inlineStr">
         <is>
-          <t>Yarı Bodrum</t>
+          <t>Ara Kat</t>
         </is>
       </c>
       <c r="H42" t="inlineStr">
         <is>
-          <t>08-11-2024</t>
+          <t>03-11-2024</t>
         </is>
       </c>
       <c r="I42" t="inlineStr">
         <is>
-          <t>https://www.hepsiemlak.com/izmir-buca-kurucesme-kiralik/daire/0-43664456</t>
-        </is>
-      </c>
-      <c r="J42" t="inlineStr">
-        <is>
-          <t>Eşyalı</t>
+          <t>https://www.hepsiemlak.com/izmir-buca-adatepe-kiralik/daire/142618-258</t>
         </is>
       </c>
       <c r="K42" t="inlineStr">
         <is>
-          <t>Klima</t>
+          <t>Kombi</t>
+        </is>
+      </c>
+      <c r="L42" t="inlineStr">
+        <is>
+          <t>Doğalgaz</t>
         </is>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>BUCA DA MERKEZİ KONUMDA 2+1</t>
+          <t>ARGA'DAN BUCA YENİGÜN MAH D.GAZLI 2+1 KİRALIK DAİRE.</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>İzmir / Buca / Çamlıkule Mah.</t>
+          <t>İzmir / Buca / Yenigün Mah.</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>20.000
+          <t>16.000
 TL</t>
         </is>
       </c>
@@ -2992,206 +2987,206 @@
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>90 m²</t>
+          <t>100 m²</t>
         </is>
       </c>
       <c r="F43" t="inlineStr">
         <is>
-          <t>6 Yaşında</t>
+          <t>22 Yaşında</t>
         </is>
       </c>
       <c r="G43" t="inlineStr">
         <is>
-          <t>4. Kat</t>
+          <t>Zemin</t>
         </is>
       </c>
       <c r="H43" t="inlineStr">
         <is>
-          <t>05-11-2024</t>
+          <t>10-11-2024</t>
         </is>
       </c>
       <c r="I43" t="inlineStr">
         <is>
-          <t>https://www.hepsiemlak.com/izmir-buca-camlikule-kiralik/daire/149792-18</t>
+          <t>https://www.hepsiemlak.com/izmir-buca-yenigun-kiralik/daire/63598-154</t>
         </is>
       </c>
       <c r="K43" t="inlineStr">
         <is>
           <t>Kombi</t>
+        </is>
+      </c>
+      <c r="L43" t="inlineStr">
+        <is>
+          <t>Doğalgaz</t>
         </is>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>HASANAĞA BAHÇESİNE 5 DK MESAFEDE FUL EŞYALI 2+1 KİRALIK DAİRE</t>
+          <t>buca Kiralık</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>İzmir / Buca / Atatürk Mah.</t>
+          <t>İzmir / Buca / Vali Rahmi Bey Mah.</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>15.750
+          <t>10.000
 TL</t>
         </is>
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>2 + 1</t>
+          <t>1 + 1</t>
         </is>
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>65 m²</t>
+          <t>45 m²</t>
         </is>
       </c>
       <c r="F44" t="inlineStr">
         <is>
-          <t>5 Yaşında</t>
+          <t>20 Yaşında</t>
         </is>
       </c>
       <c r="G44" t="inlineStr">
         <is>
-          <t>Yüksek Giriş</t>
+          <t>Ara Kat</t>
         </is>
       </c>
       <c r="H44" t="inlineStr">
         <is>
-          <t>08-11-2024</t>
+          <t>04-11-2024</t>
         </is>
       </c>
       <c r="I44" t="inlineStr">
         <is>
-          <t>https://www.hepsiemlak.com/izmir-buca-ataturk-kiralik/daire/104396-106</t>
+          <t>https://www.hepsiemlak.com/izmir-buca-vali-rahmi-bey-kiralik/daire/146551-36</t>
         </is>
       </c>
       <c r="J44" t="inlineStr">
         <is>
-          <t>Eşyalı</t>
+          <t>Eşyalı Değil</t>
         </is>
       </c>
       <c r="K44" t="inlineStr">
         <is>
-          <t>Kombi</t>
+          <t>Klima</t>
         </is>
       </c>
       <c r="L44" t="inlineStr">
         <is>
-          <t>Doğalgaz</t>
+          <t>Elektrik</t>
         </is>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>YİĞİTLER MAH.3+1 DOĞALGAZLI FULL TADİLATLI 125 M2 KİRALIK DAİRE</t>
+          <t>MARKA'DAN ANACADDE&amp;KAMPÜS YAKINI 2+0 EŞYALI&amp;KLİMALI KİRALIK DAİR</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>İzmir / Buca / Yiğitler Mah.</t>
+          <t>İzmir / Buca / Kuruçeşme Mah.</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>25.000
+          <t>15.500
 TL</t>
         </is>
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>3 + 1</t>
+          <t>2 + 0</t>
         </is>
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>125 m²</t>
+          <t>65 m²</t>
         </is>
       </c>
       <c r="F45" t="inlineStr">
         <is>
-          <t>25 Yaşında</t>
+          <t>4 Yaşında</t>
         </is>
       </c>
       <c r="G45" t="inlineStr">
         <is>
-          <t>5. Kat</t>
+          <t>2. Kat</t>
         </is>
       </c>
       <c r="H45" t="inlineStr">
         <is>
-          <t>05-11-2024</t>
+          <t>08-11-2024</t>
         </is>
       </c>
       <c r="I45" t="inlineStr">
         <is>
-          <t>https://www.hepsiemlak.com/izmir-buca-yigitler-kiralik/daire/18435-5272</t>
+          <t>https://www.hepsiemlak.com/izmir-buca-kurucesme-kiralik/daire/71024-1065</t>
         </is>
       </c>
       <c r="J45" t="inlineStr">
         <is>
-          <t>Eşyalı Değil</t>
+          <t>Eşyalı</t>
         </is>
       </c>
       <c r="K45" t="inlineStr">
         <is>
-          <t>Kombi</t>
-        </is>
-      </c>
-      <c r="L45" t="inlineStr">
-        <is>
-          <t>Doğalgaz</t>
+          <t>Klima</t>
         </is>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>Buca Yaylacık Mahallesinde Kiralık Eşyalı 1+1 Doğalgazlı Daire</t>
+          <t>Kızılkanat Sitesi Şehir Manzaralı 3+1 Doğalgazlı Asansörlü Daire</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>İzmir / Buca / Yaylacık Mah.</t>
+          <t>İzmir / Buca / Fırat Mah.</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>15.500
+          <t>30.000
 TL</t>
         </is>
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>1 + 1</t>
+          <t>3 + 1</t>
         </is>
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>50 m²</t>
+          <t>140 m²</t>
         </is>
       </c>
       <c r="F46" t="inlineStr">
         <is>
-          <t>7 Yaşında</t>
+          <t>25 Yaşında</t>
         </is>
       </c>
       <c r="G46" t="inlineStr">
         <is>
-          <t>4. Kat</t>
+          <t>7. Kat</t>
         </is>
       </c>
       <c r="H46" t="inlineStr">
         <is>
-          <t>04-11-2024</t>
+          <t>22-10-2024</t>
         </is>
       </c>
       <c r="I46" t="inlineStr">
         <is>
-          <t>https://www.hepsiemlak.com/izmir-buca-yaylacik-kiralik/daire/15356-5760</t>
+          <t>https://www.hepsiemlak.com/izmir-buca-firat-kiralik/daire/24511-9121</t>
         </is>
       </c>
       <c r="J46" t="inlineStr">
@@ -3213,174 +3208,179 @@
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>UÇANYOL VE ŞİRİNYER YAKINI MERKEZİ KONUMDA 3+1 K.MUTFAK KİRALIK</t>
+          <t>BUCA ADATEPE MAH.'DE KİRALIK 1+1 EŞYALI ARA KAT DAİRE</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>İzmir / Buca / Yiğitler Mah.</t>
+          <t>İzmir / Buca / Adatepe Mah.</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>20.000
+          <t>15.000
 TL</t>
         </is>
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>3 + 1</t>
+          <t>1 + 1</t>
         </is>
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>120 m²</t>
+          <t>50 m²</t>
         </is>
       </c>
       <c r="F47" t="inlineStr">
         <is>
-          <t>26 Yaşında</t>
+          <t>6 Yaşında</t>
         </is>
       </c>
       <c r="G47" t="inlineStr">
         <is>
-          <t>3. Kat</t>
+          <t>2. Kat</t>
         </is>
       </c>
       <c r="H47" t="inlineStr">
         <is>
-          <t>03-11-2024</t>
+          <t>06-11-2024</t>
         </is>
       </c>
       <c r="I47" t="inlineStr">
         <is>
-          <t>https://www.hepsiemlak.com/izmir-buca-yigitler-kiralik/daire/145175-90</t>
+          <t>https://www.hepsiemlak.com/izmir-buca-adatepe-kiralik/daire/111960-235</t>
         </is>
       </c>
       <c r="J47" t="inlineStr">
         <is>
-          <t>Eşyalı Değil</t>
+          <t>Eşyalı</t>
         </is>
       </c>
       <c r="K47" t="inlineStr">
         <is>
-          <t>Kombi</t>
+          <t>Klima</t>
         </is>
       </c>
       <c r="L47" t="inlineStr">
         <is>
-          <t>Doğalgaz</t>
+          <t>Elektrik</t>
         </is>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>Buca Laleli Mah. Kiralık 2+1 Daire</t>
+          <t>Buca Çevik 1'de Eşyalı 1+0 Kiralık Daire</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>İzmir / Buca / Laleli Mah.</t>
+          <t>İzmir / Buca / Kozağaç Mah.</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>20.000
+          <t>15.000
 TL</t>
         </is>
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>2 + 1</t>
+          <t>1 + 1</t>
         </is>
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>85 m²</t>
+          <t>40 m²</t>
         </is>
       </c>
       <c r="F48" t="inlineStr">
         <is>
-          <t>4 Yaşında</t>
+          <t>10 Yaşında</t>
         </is>
       </c>
       <c r="G48" t="inlineStr">
         <is>
-          <t>1. Kat</t>
+          <t>Yüksek Giriş</t>
         </is>
       </c>
       <c r="H48" t="inlineStr">
         <is>
-          <t>31-10-2024</t>
+          <t>17-09-2024</t>
         </is>
       </c>
       <c r="I48" t="inlineStr">
         <is>
-          <t>https://www.hepsiemlak.com/izmir-buca-laleli-kiralik/daire/151855-11</t>
+          <t>https://www.hepsiemlak.com/izmir-buca-kozagac-kiralik/daire/119895-2563</t>
+        </is>
+      </c>
+      <c r="J48" t="inlineStr">
+        <is>
+          <t>Eşyalı</t>
         </is>
       </c>
       <c r="K48" t="inlineStr">
         <is>
-          <t>Kombi</t>
+          <t>Klima</t>
         </is>
       </c>
       <c r="L48" t="inlineStr">
         <is>
-          <t>Doğalgaz</t>
+          <t>Elektrik</t>
         </is>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>ATAMER GAYRİMENKUL'DEN FULL EŞYALI MERKEZİ KONUM 2+1 DAİRE.</t>
+          <t>SAFİR'den Kuruçeşme Mah. Doğalgazlı klimalı Geniş 1+1 DAİRE</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>İzmir / Buca / Atatürk Mah.</t>
+          <t>İzmir / Buca / Kuruçeşme Mah.</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>20.000
+          <t>17.500
 TL</t>
         </is>
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>2 + 1</t>
+          <t>1 + 1</t>
         </is>
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>75 m²</t>
+          <t>55 m²</t>
         </is>
       </c>
       <c r="F49" t="inlineStr">
         <is>
-          <t>5 Yaşında</t>
+          <t>4 Yaşında</t>
         </is>
       </c>
       <c r="G49" t="inlineStr">
         <is>
-          <t>Yüksek Giriş</t>
+          <t>4. Kat</t>
         </is>
       </c>
       <c r="H49" t="inlineStr">
         <is>
-          <t>08-11-2024</t>
+          <t>28-10-2024</t>
         </is>
       </c>
       <c r="I49" t="inlineStr">
         <is>
-          <t>https://www.hepsiemlak.com/izmir-buca-ataturk-kiralik/daire/151729-2</t>
+          <t>https://www.hepsiemlak.com/izmir-buca-kurucesme-kiralik/daire/109159-323</t>
         </is>
       </c>
       <c r="J49" t="inlineStr">
         <is>
-          <t>Eşyalı Değil</t>
+          <t>Eşyalı</t>
         </is>
       </c>
       <c r="K49" t="inlineStr">
@@ -3392,48 +3392,48 @@
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>SAFİR'den Eşyalı Balkonlu 2+1 Kiralık Daire</t>
+          <t>ŞİRİNYER İZBAN DİBİNDE 3+1 AÇIK MUTFAK Y.GİRİŞ BAHÇELİ D.GAZLI KİRALIK LÜKS DAİRE</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>İzmir / Buca / Çamlıpınar Mah.</t>
+          <t>İzmir / Buca / İnkılap Mah.</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>17.500
+          <t>26.000
 TL</t>
         </is>
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>2 + 1</t>
+          <t>3 + 1</t>
         </is>
       </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t>100 m²</t>
+          <t>135 m²</t>
         </is>
       </c>
       <c r="F50" t="inlineStr">
         <is>
-          <t>11 Yaşında</t>
+          <t>5 Yaşında</t>
         </is>
       </c>
       <c r="G50" t="inlineStr">
         <is>
-          <t>2. Kat</t>
+          <t>Yüksek Giriş</t>
         </is>
       </c>
       <c r="H50" t="inlineStr">
         <is>
-          <t>28-10-2024</t>
+          <t>06-11-2024</t>
         </is>
       </c>
       <c r="I50" t="inlineStr">
         <is>
-          <t>https://www.hepsiemlak.com/izmir-buca-camlipinar-kiralik/daire/109159-322</t>
+          <t>https://www.hepsiemlak.com/izmir-buca-inkilap-kiralik/daire/111716-1019</t>
         </is>
       </c>
       <c r="J50" t="inlineStr">
@@ -3443,45 +3443,45 @@
       </c>
       <c r="K50" t="inlineStr">
         <is>
-          <t>Soba</t>
+          <t>Kombi</t>
         </is>
       </c>
       <c r="L50" t="inlineStr">
         <is>
-          <t>Kömür-Odun</t>
+          <t>Doğalgaz</t>
         </is>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>BAŞOĞLU'NDAN KİRALIK EŞYALI 3+1 DAİRE</t>
+          <t>Buca Kadın Doğum Hastanesi Yanı Kiralık 2+1 Boş Daire</t>
         </is>
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>İzmir / Buca / Yaylacık Mah.</t>
+          <t>İzmir / Buca / Atatürk Mah.</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>23.000
+          <t>20.000
 TL</t>
         </is>
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>3 + 1</t>
+          <t>2 + 1</t>
         </is>
       </c>
       <c r="E51" t="inlineStr">
         <is>
-          <t>130 m²</t>
+          <t>85 m²</t>
         </is>
       </c>
       <c r="F51" t="inlineStr">
         <is>
-          <t>15 Yaşında</t>
+          <t>13 Yaşında</t>
         </is>
       </c>
       <c r="G51" t="inlineStr">
@@ -3491,22 +3491,22 @@
       </c>
       <c r="H51" t="inlineStr">
         <is>
-          <t>16-10-2024</t>
+          <t>14-10-2024</t>
         </is>
       </c>
       <c r="I51" t="inlineStr">
         <is>
-          <t>https://www.hepsiemlak.com/izmir-buca-yaylacik-kiralik/daire/129980-625</t>
+          <t>https://www.hepsiemlak.com/izmir-buca-ataturk-kiralik/daire/21024-11193</t>
         </is>
       </c>
       <c r="J51" t="inlineStr">
         <is>
-          <t>Eşyalı</t>
+          <t>Eşyalı Değil</t>
         </is>
       </c>
       <c r="K51" t="inlineStr">
         <is>
-          <t>Kombi</t>
+          <t>Merkezi (Pay Ölçer)</t>
         </is>
       </c>
       <c r="L51" t="inlineStr">
@@ -3518,106 +3518,106 @@
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>BUCA ATATÜRK MAH.'NDE EŞYALI KİRALIK DAİRE (1+1)</t>
+          <t>İzmir Buca Kozağaç Meydanda//Cade üzeri 1.kat Ve Bahçekatı.2+1Kiralık Daireler</t>
         </is>
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>İzmir / Buca / Atatürk Mah.</t>
+          <t>İzmir / Buca / Kozağaç Mah.</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>17.500
+          <t>13.000
 TL</t>
         </is>
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t>Stüdyo</t>
+          <t>2 + 1</t>
         </is>
       </c>
       <c r="E52" t="inlineStr">
         <is>
-          <t>70 m²</t>
+          <t>75 m²</t>
         </is>
       </c>
       <c r="F52" t="inlineStr">
         <is>
-          <t>18 Yaşında</t>
+          <t>21 Yaşında</t>
         </is>
       </c>
       <c r="G52" t="inlineStr">
         <is>
-          <t>En Üst Kat</t>
+          <t>Yüksek Giriş</t>
         </is>
       </c>
       <c r="H52" t="inlineStr">
         <is>
-          <t>31-10-2024</t>
+          <t>12-10-2024</t>
         </is>
       </c>
       <c r="I52" t="inlineStr">
         <is>
-          <t>https://www.hepsiemlak.com/izmir-buca-ataturk-kiralik/daire/145065-57</t>
-        </is>
-      </c>
-      <c r="J52" t="inlineStr">
-        <is>
-          <t>Eşyalı</t>
+          <t>https://www.hepsiemlak.com/izmir-buca-kozagac-kiralik/daire/85846-1864</t>
         </is>
       </c>
       <c r="K52" t="inlineStr">
         <is>
-          <t>Klima</t>
+          <t>Kombi</t>
+        </is>
+      </c>
+      <c r="L52" t="inlineStr">
+        <is>
+          <t>Doğalgaz</t>
         </is>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>ŞİRİNYER İZBANA YAKIN 1+1</t>
+          <t>OYAK BUCA 2.ETAP KİRALIK DAİRE.</t>
         </is>
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>İzmir / Buca / Laleli Mah.</t>
+          <t>İzmir / Buca / Aydoğdu Mah.</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>15.000
+          <t>45.000
 TL</t>
         </is>
       </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t>1 + 1</t>
+          <t>3 + 1</t>
         </is>
       </c>
       <c r="E53" t="inlineStr">
         <is>
-          <t>49 m²</t>
+          <t>160 m²</t>
         </is>
       </c>
       <c r="F53" t="inlineStr">
         <is>
-          <t>5 Yaşında</t>
+          <t>7 Yaşında</t>
         </is>
       </c>
       <c r="G53" t="inlineStr">
         <is>
-          <t>En Üst Kat</t>
+          <t>11. Kat</t>
         </is>
       </c>
       <c r="H53" t="inlineStr">
         <is>
-          <t>05-11-2024</t>
+          <t>09-11-2024</t>
         </is>
       </c>
       <c r="I53" t="inlineStr">
         <is>
-          <t>https://www.hepsiemlak.com/izmir-buca-laleli-kiralik/daire/142604-71</t>
+          <t>https://www.hepsiemlak.com/izmir-buca-aydogdu-kiralik/daire/0-43670789</t>
         </is>
       </c>
       <c r="J53" t="inlineStr">
@@ -3627,7 +3627,7 @@
       </c>
       <c r="K53" t="inlineStr">
         <is>
-          <t>Kombi</t>
+          <t>Merkezi (Pay Ölçer)</t>
         </is>
       </c>
       <c r="L53" t="inlineStr">
@@ -3639,7 +3639,7 @@
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>BUCA ADATEPE MAH. TINAZTEPE KAMPÜS CİVARI 2+1 D.GAZLI DAİRE</t>
+          <t>GOLDİA YAPI'DAN KAMPÜS YAKINI 1+1 KİRALIK DAİRE</t>
         </is>
       </c>
       <c r="B54" t="inlineStr">
@@ -3649,65 +3649,70 @@
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>20.000
+          <t>16.500
 TL</t>
         </is>
       </c>
       <c r="D54" t="inlineStr">
         <is>
-          <t>2 + 1</t>
+          <t>1 + 1</t>
         </is>
       </c>
       <c r="E54" t="inlineStr">
         <is>
-          <t>100 m²</t>
+          <t>60 m²</t>
         </is>
       </c>
       <c r="F54" t="inlineStr">
         <is>
-          <t>Sıfır Bina</t>
+          <t>4 Yaşında</t>
         </is>
       </c>
       <c r="G54" t="inlineStr">
         <is>
-          <t>3. Kat</t>
+          <t>Ara Kat</t>
         </is>
       </c>
       <c r="H54" t="inlineStr">
         <is>
-          <t>06-11-2024</t>
+          <t>03-11-2024</t>
         </is>
       </c>
       <c r="I54" t="inlineStr">
         <is>
-          <t>https://www.hepsiemlak.com/izmir-buca-adatepe-kiralik/daire/111960-216</t>
+          <t>https://www.hepsiemlak.com/izmir-buca-adatepe-kiralik/daire/142618-256</t>
         </is>
       </c>
       <c r="J54" t="inlineStr">
         <is>
-          <t>Eşyalı Değil</t>
+          <t>Eşyalı</t>
         </is>
       </c>
       <c r="K54" t="inlineStr">
         <is>
           <t>Kombi</t>
+        </is>
+      </c>
+      <c r="L54" t="inlineStr">
+        <is>
+          <t>Doğalgaz</t>
         </is>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>Şirinyer İzban Yakını Emek Sitasinde  3+1 Kiralık Daire</t>
+          <t>ARGA'DAN BUCA YENİGÜN'DE D.GAZLI FULL EŞYALI 3+1 KİRALIK DAİRE.</t>
         </is>
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>İzmir / Buca / Hürriyet Mah.</t>
+          <t>İzmir / Buca / Yenigün Mah.</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>20.000
+          <t>26.000
 TL</t>
         </is>
       </c>
@@ -3718,7 +3723,7 @@
       </c>
       <c r="E55" t="inlineStr">
         <is>
-          <t>145 m²</t>
+          <t>140 m²</t>
         </is>
       </c>
       <c r="F55" t="inlineStr">
@@ -3728,75 +3733,80 @@
       </c>
       <c r="G55" t="inlineStr">
         <is>
-          <t>1. Kat</t>
+          <t>Ara Kat</t>
         </is>
       </c>
       <c r="H55" t="inlineStr">
         <is>
-          <t>08-11-2024</t>
+          <t>24-10-2024</t>
         </is>
       </c>
       <c r="I55" t="inlineStr">
         <is>
-          <t>https://www.hepsiemlak.com/izmir-buca-hurriyet-kiralik/daire/32694-775</t>
+          <t>https://www.hepsiemlak.com/izmir-buca-yenigun-kiralik/daire/63598-151</t>
         </is>
       </c>
       <c r="J55" t="inlineStr">
         <is>
-          <t>Eşyalı Değil</t>
+          <t>Eşyalı</t>
         </is>
       </c>
       <c r="K55" t="inlineStr">
         <is>
           <t>Kombi</t>
+        </is>
+      </c>
+      <c r="L55" t="inlineStr">
+        <is>
+          <t>Doğalgaz</t>
         </is>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>BUCA MENDERES CADDESİ ÜZERİNDE ÖGRENCİYE İŞYERİNE  UYGUN KİRALIK 2+1 KEFİLLİ VERİLECEKTİR</t>
+          <t>MARKA'DAN H.AĞA BAHÇESİ 100 MT 1+1 D.GAZLI&amp;EŞYALI&amp;ARAKAT KİRALIK</t>
         </is>
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>İzmir / Buca / Vali Rahmi Bey Mah.</t>
+          <t>İzmir / Buca / Adatepe Mah.</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>13.000
+          <t>14.000
 TL</t>
         </is>
       </c>
       <c r="D56" t="inlineStr">
         <is>
-          <t>2 + 1</t>
+          <t>1 + 1</t>
         </is>
       </c>
       <c r="E56" t="inlineStr">
         <is>
-          <t>85 m²</t>
+          <t>55 m²</t>
         </is>
       </c>
       <c r="F56" t="inlineStr">
         <is>
-          <t>45 Yaşında</t>
+          <t>4 Yaşında</t>
         </is>
       </c>
       <c r="G56" t="inlineStr">
         <is>
-          <t>En Üst Kat</t>
+          <t>2. Kat</t>
         </is>
       </c>
       <c r="H56" t="inlineStr">
         <is>
-          <t>02-11-2024</t>
+          <t>08-11-2024</t>
         </is>
       </c>
       <c r="I56" t="inlineStr">
         <is>
-          <t>https://www.hepsiemlak.com/izmir-buca-vali-rahmi-bey-kiralik/daire/30787-1790</t>
+          <t>https://www.hepsiemlak.com/izmir-buca-adatepe-kiralik/daire/71024-1064</t>
         </is>
       </c>
       <c r="J56" t="inlineStr">
@@ -3813,119 +3823,414 @@
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>1+1 EŞYALI KİRALIK 9 EYLÜL VE KADIN DOĞUMA YÜRÜME MESAFESİNDE</t>
+          <t>BUCA ÇEVİK-1 MEYDAN YAKINI 3+1 SON KAT D.GAZLI BAKIMLI KİRALIK DAİRE</t>
         </is>
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>İzmir / Buca / Atatürk Mah.</t>
+          <t>İzmir / Buca / Kozağaç Mah.</t>
         </is>
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>14.000
+          <t>20.000
 TL</t>
         </is>
       </c>
       <c r="D57" t="inlineStr">
         <is>
-          <t>1 + 1</t>
+          <t>3 + 1</t>
         </is>
       </c>
       <c r="E57" t="inlineStr">
         <is>
-          <t>55 m²</t>
+          <t>135 m²</t>
         </is>
       </c>
       <c r="F57" t="inlineStr">
         <is>
-          <t>15 Yaşında</t>
+          <t>24 Yaşında</t>
         </is>
       </c>
       <c r="G57" t="inlineStr">
         <is>
-          <t>Kot 2</t>
+          <t>4. Kat</t>
         </is>
       </c>
       <c r="H57" t="inlineStr">
         <is>
-          <t>08-11-2024</t>
+          <t>06-11-2024</t>
         </is>
       </c>
       <c r="I57" t="inlineStr">
         <is>
-          <t>https://www.hepsiemlak.com/izmir-buca-ataturk-kiralik/daire/83315-75</t>
-        </is>
-      </c>
-      <c r="J57" t="inlineStr">
-        <is>
-          <t>Eşyalı</t>
+          <t>https://www.hepsiemlak.com/izmir-buca-kozagac-kiralik/daire/111960-239</t>
         </is>
       </c>
       <c r="K57" t="inlineStr">
         <is>
-          <t>Klima</t>
+          <t>Kombi</t>
         </is>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>BUCA DA ÇOK MERKEZİ KONUMDA KIRALIK DAÌRE</t>
+          <t>SAFİR'den Yaylacık Mah. Eşyasız DoğalGazlı Kiralık Daire</t>
         </is>
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>İzmir / Buca / Menderes Mah.</t>
+          <t>İzmir / Buca / Yaylacık Mah.</t>
         </is>
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>19.000
+          <t>13.500
 TL</t>
         </is>
       </c>
       <c r="D58" t="inlineStr">
         <is>
+          <t>1 + 1</t>
+        </is>
+      </c>
+      <c r="E58" t="inlineStr">
+        <is>
+          <t>55 m²</t>
+        </is>
+      </c>
+      <c r="F58" t="inlineStr">
+        <is>
+          <t>4 Yaşında</t>
+        </is>
+      </c>
+      <c r="G58" t="inlineStr">
+        <is>
+          <t>1. Kat</t>
+        </is>
+      </c>
+      <c r="H58" t="inlineStr">
+        <is>
+          <t>28-10-2024</t>
+        </is>
+      </c>
+      <c r="I58" t="inlineStr">
+        <is>
+          <t>https://www.hepsiemlak.com/izmir-buca-yaylacik-kiralik/daire/109159-291</t>
+        </is>
+      </c>
+      <c r="J58" t="inlineStr">
+        <is>
+          <t>Eşyalı Değil</t>
+        </is>
+      </c>
+      <c r="K58" t="inlineStr">
+        <is>
+          <t>Kombi</t>
+        </is>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="inlineStr">
+        <is>
+          <t>Barış Mh 3+1 135 M2 Ultra Lüks Kiralık Doğalgazlı Jakuzili Daire</t>
+        </is>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>İzmir / Buca / Barış Mah.</t>
+        </is>
+      </c>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t>26.000
+TL</t>
+        </is>
+      </c>
+      <c r="D59" t="inlineStr">
+        <is>
           <t>3 + 1</t>
         </is>
       </c>
-      <c r="E58" t="inlineStr">
-        <is>
-          <t>120 m²</t>
-        </is>
-      </c>
-      <c r="F58" t="inlineStr">
-        <is>
-          <t>32 Yaşında</t>
-        </is>
-      </c>
-      <c r="G58" t="inlineStr">
-        <is>
-          <t>Çatı Katı</t>
-        </is>
-      </c>
-      <c r="H58" t="inlineStr">
-        <is>
-          <t>23-10-2024</t>
-        </is>
-      </c>
-      <c r="I58" t="inlineStr">
-        <is>
-          <t>https://www.hepsiemlak.com/izmir-buca-menderes-kiralik/daire/27103-4631</t>
-        </is>
-      </c>
-      <c r="J58" t="inlineStr">
+      <c r="E59" t="inlineStr">
+        <is>
+          <t>135 m²</t>
+        </is>
+      </c>
+      <c r="F59" t="inlineStr">
+        <is>
+          <t>25 Yaşında</t>
+        </is>
+      </c>
+      <c r="G59" t="inlineStr">
+        <is>
+          <t>Yüksek Giriş</t>
+        </is>
+      </c>
+      <c r="H59" t="inlineStr">
+        <is>
+          <t>15-10-2024</t>
+        </is>
+      </c>
+      <c r="I59" t="inlineStr">
+        <is>
+          <t>https://www.hepsiemlak.com/izmir-buca-baris-kiralik/daire/24511-9107</t>
+        </is>
+      </c>
+      <c r="J59" t="inlineStr">
+        <is>
+          <t>Eşyalı Değil</t>
+        </is>
+      </c>
+      <c r="K59" t="inlineStr">
+        <is>
+          <t>Kombi</t>
+        </is>
+      </c>
+      <c r="L59" t="inlineStr">
+        <is>
+          <t>Doğalgaz</t>
+        </is>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="inlineStr">
+        <is>
+          <t>buca kozagaç mahhalessi  cadde üzeri 2+1 bakımlı kiralık daire</t>
+        </is>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>İzmir / Buca / Kozağaç Mah.</t>
+        </is>
+      </c>
+      <c r="C60" t="inlineStr">
+        <is>
+          <t>15.000
+TL</t>
+        </is>
+      </c>
+      <c r="D60" t="inlineStr">
+        <is>
+          <t>2 + 1</t>
+        </is>
+      </c>
+      <c r="E60" t="inlineStr">
+        <is>
+          <t>100 m²</t>
+        </is>
+      </c>
+      <c r="F60" t="inlineStr">
+        <is>
+          <t>25 Yaşında</t>
+        </is>
+      </c>
+      <c r="G60" t="inlineStr">
+        <is>
+          <t>1. Kat</t>
+        </is>
+      </c>
+      <c r="H60" t="inlineStr">
+        <is>
+          <t>09-11-2024</t>
+        </is>
+      </c>
+      <c r="I60" t="inlineStr">
+        <is>
+          <t>https://www.hepsiemlak.com/izmir-buca-kozagac-kiralik/daire/125390-227</t>
+        </is>
+      </c>
+      <c r="K60" t="inlineStr">
+        <is>
+          <t>Klima</t>
+        </is>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="inlineStr">
+        <is>
+          <t>ADATEPEDE HASANAĞA BAHÇESİNE YÜRÜME MESAFESİNDE KİRALIK 2+1</t>
+        </is>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>İzmir / Buca / Adatepe Mah.</t>
+        </is>
+      </c>
+      <c r="C61" t="inlineStr">
+        <is>
+          <t>20.000
+TL</t>
+        </is>
+      </c>
+      <c r="D61" t="inlineStr">
+        <is>
+          <t>2 + 1</t>
+        </is>
+      </c>
+      <c r="E61" t="inlineStr">
+        <is>
+          <t>85 m²</t>
+        </is>
+      </c>
+      <c r="F61" t="inlineStr">
+        <is>
+          <t>5 Yaşında</t>
+        </is>
+      </c>
+      <c r="G61" t="inlineStr">
+        <is>
+          <t>1. Kat</t>
+        </is>
+      </c>
+      <c r="H61" t="inlineStr">
+        <is>
+          <t>04-11-2024</t>
+        </is>
+      </c>
+      <c r="I61" t="inlineStr">
+        <is>
+          <t>https://www.hepsiemlak.com/izmir-buca-adatepe-kiralik/daire/124272-354</t>
+        </is>
+      </c>
+      <c r="J61" t="inlineStr">
+        <is>
+          <t>Eşyalı Değil</t>
+        </is>
+      </c>
+      <c r="K61" t="inlineStr">
+        <is>
+          <t>Kombi</t>
+        </is>
+      </c>
+      <c r="L61" t="inlineStr">
+        <is>
+          <t>Doğalgaz</t>
+        </is>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="inlineStr">
+        <is>
+          <t>ÜÇKUYULAR MEYDAN VE FAKÜLTELER YAKINI '2+1' ARAKAT-DGAZLI DAİRE</t>
+        </is>
+      </c>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>İzmir / Buca / Atatürk Mah.</t>
+        </is>
+      </c>
+      <c r="C62" t="inlineStr">
+        <is>
+          <t>15.000
+TL</t>
+        </is>
+      </c>
+      <c r="D62" t="inlineStr">
+        <is>
+          <t>2 + 1</t>
+        </is>
+      </c>
+      <c r="E62" t="inlineStr">
+        <is>
+          <t>75 m²</t>
+        </is>
+      </c>
+      <c r="F62" t="inlineStr">
+        <is>
+          <t>15 Yaşında</t>
+        </is>
+      </c>
+      <c r="G62" t="inlineStr">
+        <is>
+          <t>2. Kat</t>
+        </is>
+      </c>
+      <c r="H62" t="inlineStr">
+        <is>
+          <t>08-11-2024</t>
+        </is>
+      </c>
+      <c r="I62" t="inlineStr">
+        <is>
+          <t>https://www.hepsiemlak.com/izmir-buca-ataturk-kiralik/daire/104457-29</t>
+        </is>
+      </c>
+      <c r="J62" t="inlineStr">
+        <is>
+          <t>Eşyalı Değil</t>
+        </is>
+      </c>
+      <c r="K62" t="inlineStr">
+        <is>
+          <t>Kombi</t>
+        </is>
+      </c>
+      <c r="L62" t="inlineStr">
+        <is>
+          <t>Doğalgaz</t>
+        </is>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="inlineStr">
+        <is>
+          <t>BUCA TINAZTEPE AHMET YESEVİ KIZ YURDU YANI 1+1 FULL EŞYALI KLİMALI BAHÇELİ LÜX KİRALIK DAİRE</t>
+        </is>
+      </c>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t>İzmir / Buca / Kuruçeşme Mah.</t>
+        </is>
+      </c>
+      <c r="C63" t="inlineStr">
+        <is>
+          <t>14.000
+TL</t>
+        </is>
+      </c>
+      <c r="D63" t="inlineStr">
+        <is>
+          <t>1 + 1</t>
+        </is>
+      </c>
+      <c r="E63" t="inlineStr">
+        <is>
+          <t>55 m²</t>
+        </is>
+      </c>
+      <c r="F63" t="inlineStr">
+        <is>
+          <t>5 Yaşında</t>
+        </is>
+      </c>
+      <c r="G63" t="inlineStr">
+        <is>
+          <t>Giriş Katı</t>
+        </is>
+      </c>
+      <c r="H63" t="inlineStr">
+        <is>
+          <t>06-11-2024</t>
+        </is>
+      </c>
+      <c r="I63" t="inlineStr">
+        <is>
+          <t>https://www.hepsiemlak.com/izmir-buca-kurucesme-kiralik/daire/111716-1075</t>
+        </is>
+      </c>
+      <c r="J63" t="inlineStr">
         <is>
           <t>Eşyalı</t>
         </is>
       </c>
-      <c r="K58" t="inlineStr">
+      <c r="K63" t="inlineStr">
         <is>
           <t>Klima</t>
         </is>
       </c>
-      <c r="L58" t="inlineStr"/>
+      <c r="L63" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
